--- a/posts/smart-youth/smart-youth.xlsx
+++ b/posts/smart-youth/smart-youth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-factsheets/posts/smart-youth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/smart-youth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9066CC8D-9D90-4093-A64F-5FFC93D7A035}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5515F7B7-FEF0-4418-BDD5-497A5CEF4CBC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,159 +33,57 @@
     <t>CITATION METADATA</t>
   </si>
   <si>
-    <t xml:space="preserve">Persistent Identifier </t>
-  </si>
-  <si>
     <t>doi:10.34894/FCBXSI</t>
   </si>
   <si>
-    <t xml:space="preserve">Publication Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title </t>
-  </si>
-  <si>
     <t>SMART-Youth: Data</t>
   </si>
   <si>
-    <t xml:space="preserve">Subtitle </t>
-  </si>
-  <si>
     <t>SMART-Youth: Secondary Manifestations of ARTerial diseases in the Young with a chronic condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Author </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point of Contact </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject </t>
-  </si>
-  <si>
     <t>Medicine, Health and Life Sciences</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic Classification </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Related Publication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language </t>
-  </si>
-  <si>
     <t>Dutch; English</t>
   </si>
   <si>
-    <t xml:space="preserve">Contributor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funding Information </t>
-  </si>
-  <si>
     <t>Elisabeth von Freyburg Stichting: UMC/WKZ 23-01 “Young at Heart”</t>
   </si>
   <si>
-    <t xml:space="preserve">Depositor </t>
-  </si>
-  <si>
     <t>van der Linden, Isabelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Deposit Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Period </t>
-  </si>
-  <si>
-    <t>Start Date: 2024-02-01 ; End Date: 2029-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Collection </t>
-  </si>
-  <si>
-    <t>Start Date: 2024-08-01 ; End Date: 2029-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Type </t>
-  </si>
-  <si>
     <t>Clinical data; Survey data</t>
   </si>
   <si>
-    <t xml:space="preserve">Software </t>
-  </si>
-  <si>
     <t>R, Version: 4.2</t>
   </si>
   <si>
     <t>DATA VAULT METADATA</t>
   </si>
   <si>
-    <t xml:space="preserve">DV PID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV PID Version </t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Bag ID </t>
-  </si>
-  <si>
     <t>urn:uuid:e900d965-550b-4dc2-9d39-f061d77d0ec0</t>
   </si>
   <si>
-    <t xml:space="preserve">NBN </t>
-  </si>
-  <si>
     <t>urn:nbn:nl:ui:13-8b08efbf-c8ce-43a7-a176-dbb237535c31</t>
   </si>
   <si>
     <t>DATASET TERMS</t>
   </si>
   <si>
-    <t>License/Data Use Agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terms of Use </t>
-  </si>
-  <si>
     <t>The standard Data Sharing Agreement (DSA) of the UMC Utrecht must be signed without adjustments. This DSA is in compliance with Dutch law. No costs are involved.</t>
   </si>
   <si>
-    <t xml:space="preserve">Confidentiality Declaration </t>
-  </si>
-  <si>
     <t>No confidentiality declaration needed under the condition that Terms of Use are met.</t>
   </si>
   <si>
-    <t xml:space="preserve">Special Permissions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restrictions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citation Requirements </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditions </t>
-  </si>
-  <si>
     <t>To access and use the dataset please read the Terms of Use and the Terms of Access for Restricted Files.</t>
   </si>
   <si>
-    <t xml:space="preserve">Disclaimer </t>
-  </si>
-  <si>
     <t>doi:[10.34894/FCBXSI](https://doi.org/10.34894/FCBXSI)</t>
   </si>
   <si>
@@ -250,6 +148,108 @@
   </si>
   <si>
     <t>Cardiometabolic Risk Factors ([MeSH](https://www.ncbi.nlm.nih.gov/mesh/2052020))</t>
+  </si>
+  <si>
+    <t>_Start Date_: 2024-02-01 ; _End Date_: 2029-02-01</t>
+  </si>
+  <si>
+    <t>_Start Date_: 2024-08-01 ; _End Date_: 2029-02-01</t>
+  </si>
+  <si>
+    <t>**Persistent Identifier **</t>
+  </si>
+  <si>
+    <t>**Publication Date**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Title** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Author** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Subtitle** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Point of Contact** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Description** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Subject** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Keyword**  </t>
+  </si>
+  <si>
+    <t>**Topic Classification**</t>
+  </si>
+  <si>
+    <t>**Related Publication**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Language** </t>
+  </si>
+  <si>
+    <t>**Contributor**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Funding Information** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Deposit Date** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Date of Collection** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Data Type** </t>
+  </si>
+  <si>
+    <t>**Software**</t>
+  </si>
+  <si>
+    <t>**Depositor**</t>
+  </si>
+  <si>
+    <t>**Time Period**</t>
+  </si>
+  <si>
+    <t>**License/Data Use Agreement**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Terms of Use** </t>
+  </si>
+  <si>
+    <t>**Confidentiality Declaration**</t>
+  </si>
+  <si>
+    <t>**Special Permissions**</t>
+  </si>
+  <si>
+    <t>**Restrictions**</t>
+  </si>
+  <si>
+    <t>**Citation Requirements**</t>
+  </si>
+  <si>
+    <t>**Conditions**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Disclaimer** </t>
+  </si>
+  <si>
+    <t>**DV PID**</t>
+  </si>
+  <si>
+    <t>**DV PID Version**</t>
+  </si>
+  <si>
+    <t>**Bag ID**</t>
+  </si>
+  <si>
+    <t>**NBN**</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -311,6 +311,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,10 +332,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,324 +623,324 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
+      <c r="A15" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>16</v>
+      <c r="A20" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
+      <c r="A23" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
+      <c r="A25" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
+      <c r="A27" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+      <c r="A29" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
+      <c r="A31" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
+      <c r="A38" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/posts/smart-youth/smart-youth.xlsx
+++ b/posts/smart-youth/smart-youth.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="93" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5515F7B7-FEF0-4418-BDD5-497A5CEF4CBC}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -312,10 +312,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -662,25 +662,25 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -688,7 +688,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -710,7 +710,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
@@ -718,19 +718,19 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
@@ -744,7 +744,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B20" t="s">
@@ -752,13 +752,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -888,7 +888,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -904,7 +904,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B41" t="s">
@@ -912,7 +912,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B42" t="s">
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B43" t="s">
@@ -928,7 +928,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
